--- a/Phase 2 - Initalisierung/ID2558_TabinasKenan_Studie_Anfoderungen.xlsx
+++ b/Phase 2 - Initalisierung/ID2558_TabinasKenan_Studie_Anfoderungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandgenossenschaft-my.sharepoint.com/personal/kenan_tabinas_band_ch/Documents/Documents/_PDA/Phase 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 2 - Initalisierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="566" documentId="8_{86A2A8BC-2F20-4AFF-8B6A-A7256DAA5268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5D3EB70-802E-4389-9E96-82C05ACD1961}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2323212-C234-4C4A-A8E0-C6E1F6CE1CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{DA433E35-B52F-4024-9647-759327940159}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{DA433E35-B52F-4024-9647-759327940159}"/>
   </bookViews>
   <sheets>
     <sheet name="Grobanforderungen" sheetId="4" r:id="rId1"/>
@@ -828,7 +828,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,7 +1007,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1280,17 +1280,17 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="11" t="s">
         <v>147</v>
       </c>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="11" t="s">
         <v>151</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="11" t="s">
         <v>154</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="11" t="s">
         <v>156</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="11" t="s">
         <v>158</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11" t="s">
         <v>199</v>
       </c>
@@ -1461,13 +1461,13 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="12"/>
-    <col min="2" max="2" width="75.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="12"/>
+    <col min="2" max="2" width="75.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="9" t="s">
         <v>168</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
         <v>203</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
         <v>204</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
         <v>205</v>
       </c>
@@ -1513,12 +1513,12 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>152.00639999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>101.33759999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -1630,15 +1630,15 @@
       <selection activeCell="A4" sqref="A4:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>176</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>17.411764705882355</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>0.12666666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>36.666666666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -1820,16 +1820,16 @@
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>2.3226392251815979</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>2.4085490780406036</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -1984,16 +1984,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB70393E-2220-4916-B2BE-A4B8BF3A829E}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2027,7 +2029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2078,7 +2080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2146,7 +2148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2197,7 +2199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2214,7 +2216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2350,7 +2352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
@@ -2364,14 +2366,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1706C392-0F67-46EC-91BA-6C4D65D92061}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="A1:C37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="3" max="3" width="83.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -2448,7 +2452,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2459,7 +2463,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -2470,7 +2474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2481,7 +2485,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2503,7 +2507,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2525,7 +2529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2547,7 +2551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2558,7 +2562,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2591,7 +2595,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -2602,7 +2606,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -2613,7 +2617,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -2646,7 +2650,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -2657,7 +2661,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -2679,7 +2683,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -2712,7 +2716,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -2745,7 +2749,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -2767,7 +2771,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -2792,9 +2796,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="33" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>214</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="113" thickBot="1">
       <c r="A2" s="19" t="s">
         <v>218</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="129" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>223</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="129" thickBot="1">
       <c r="A4" s="19" t="s">
         <v>226</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="174" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="162" thickBot="1">
       <c r="A5" s="19" t="s">
         <v>231</v>
       </c>
@@ -2879,7 +2883,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="113" thickBot="1">
       <c r="A6" s="19" t="s">
         <v>235</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="129" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>239</v>
       </c>
@@ -2913,7 +2917,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="113" thickBot="1">
       <c r="A8" s="19" t="s">
         <v>243</v>
       </c>
@@ -2930,7 +2934,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="174" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="145" thickBot="1">
       <c r="A9" s="19" t="s">
         <v>247</v>
       </c>
@@ -2960,9 +2964,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="E2">
         <v>2</v>
       </c>

--- a/Phase 2 - Initalisierung/ID2558_TabinasKenan_Studie_Anfoderungen.xlsx
+++ b/Phase 2 - Initalisierung/ID2558_TabinasKenan_Studie_Anfoderungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 2 - Initalisierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2323212-C234-4C4A-A8E0-C6E1F6CE1CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E24817-D993-574A-BAFA-E5202C963252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{DA433E35-B52F-4024-9647-759327940159}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{DA433E35-B52F-4024-9647-759327940159}"/>
   </bookViews>
   <sheets>
     <sheet name="Grobanforderungen" sheetId="4" r:id="rId1"/>
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721C0BF9-28A5-4782-94F1-EE4FB82A06FE}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1814,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637BA774-E0E7-4C19-AD1D-FE9A8ED51DE1}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1975,6 +1975,12 @@
         <v>2.9663586827765931</v>
       </c>
     </row>
+    <row r="5" spans="1:10">
+      <c r="I5" s="16">
+        <f>SUM(I2:I4)</f>
+        <v>39008760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1984,7 +1990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB70393E-2220-4916-B2BE-A4B8BF3A829E}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2994,6 +3000,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009151C58A0447794B9E0607E30835C453" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12a8ae1fe6847e7688fecbc833036ad1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="248d1be3-9005-4a53-9e23-930b11b42652" xmlns:ns3="97bfa93b-b8db-4eca-8ab5-9a111bcfc4d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="177c7bbfb54b7de753f7072aad8f816f" ns2:_="" ns3:_="">
     <xsd:import namespace="248d1be3-9005-4a53-9e23-930b11b42652"/>
@@ -3230,16 +3245,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DEBE1EE-078C-4682-9064-E5AFC566AB05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C64375A0-2FDD-4BE9-A380-8C10CD74B2F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3258,14 +3272,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DEBE1EE-078C-4682-9064-E5AFC566AB05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{defa4170-0d19-0005-0004-bc88714345d2}" enabled="1" method="Standard" siteId="{d8d26fa7-47f4-4dd4-b833-962641d44b63}" contentBits="0" removed="0"/>

--- a/Phase 2 - Initalisierung/ID2558_TabinasKenan_Studie_Anfoderungen.xlsx
+++ b/Phase 2 - Initalisierung/ID2558_TabinasKenan_Studie_Anfoderungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 2 - Initalisierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E24817-D993-574A-BAFA-E5202C963252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCCB036-7437-AA4E-9B10-C8839E9B7C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{DA433E35-B52F-4024-9647-759327940159}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{DA433E35-B52F-4024-9647-759327940159}"/>
   </bookViews>
   <sheets>
     <sheet name="Grobanforderungen" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="B1 V1" sheetId="6" r:id="rId4"/>
     <sheet name="B1 V2" sheetId="7" r:id="rId5"/>
     <sheet name="Anforderungen" sheetId="2" r:id="rId6"/>
-    <sheet name="Abnahme" sheetId="3" r:id="rId7"/>
-    <sheet name="Ziele" sheetId="9" r:id="rId8"/>
-    <sheet name="Projektziele" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId7"/>
+    <sheet name="Abnahme" sheetId="3" r:id="rId8"/>
+    <sheet name="Ziele" sheetId="9" r:id="rId9"/>
+    <sheet name="Projektziele" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1453,6 +1454,43 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E020C9E9-8A7B-4BBD-ACA1-F7B068451E5D}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2889D8DD-76E3-43FB-AC86-7BB4C7FBB9F4}">
   <dimension ref="A1:B4"/>
@@ -1626,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721C0BF9-28A5-4782-94F1-EE4FB82A06FE}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1990,9 +2028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB70393E-2220-4916-B2BE-A4B8BF3A829E}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
@@ -2134,7 +2170,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2369,11 +2405,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BC8FAF-DFAA-6541-B30C-4309D9851E75}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1706C392-0F67-46EC-91BA-6C4D65D92061}">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="A1:C37"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
@@ -2794,7 +2842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C06A4-8853-4FDF-B3D6-4652A125AFBF}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2955,43 +3003,6 @@
       </c>
       <c r="E9" s="20" t="s">
         <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E020C9E9-8A7B-4BBD-ACA1-F7B068451E5D}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="E2">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
